--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N2">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="O2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q2">
-        <v>14.6788284028533</v>
+        <v>22.00911826159811</v>
       </c>
       <c r="R2">
-        <v>14.6788284028533</v>
+        <v>198.082064354383</v>
       </c>
       <c r="S2">
-        <v>0.0004470568186600082</v>
+        <v>0.0005890960693255537</v>
       </c>
       <c r="T2">
-        <v>0.0004470568186600082</v>
+        <v>0.0005890960693255537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N3">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q3">
-        <v>1229.181622697706</v>
+        <v>1486.410142926301</v>
       </c>
       <c r="R3">
-        <v>1229.181622697706</v>
+        <v>13377.69128633671</v>
       </c>
       <c r="S3">
-        <v>0.03743582326309961</v>
+        <v>0.03978525455657837</v>
       </c>
       <c r="T3">
-        <v>0.03743582326309961</v>
+        <v>0.03978525455657837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N4">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="O4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q4">
-        <v>595.7740480484809</v>
+        <v>4.763071994001778</v>
       </c>
       <c r="R4">
-        <v>595.7740480484809</v>
+        <v>42.867647946016</v>
       </c>
       <c r="S4">
-        <v>0.01814483031281817</v>
+        <v>0.0001274883871416543</v>
       </c>
       <c r="T4">
-        <v>0.01814483031281817</v>
+        <v>0.0001274883871416543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.0154433058358</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>12.0154433058358</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.02493385824523583</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.543673551326876</v>
+        <v>26.65531</v>
       </c>
       <c r="N5">
-        <v>0.543673551326876</v>
+        <v>79.96593</v>
       </c>
       <c r="O5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q5">
-        <v>6.532478732850489</v>
+        <v>866.9683736463567</v>
       </c>
       <c r="R5">
-        <v>6.532478732850489</v>
+        <v>7802.71536281721</v>
       </c>
       <c r="S5">
-        <v>0.0001989524695107568</v>
+        <v>0.02320527588039558</v>
       </c>
       <c r="T5">
-        <v>0.0001989524695107568</v>
+        <v>0.02320527588039558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H6">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I6">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J6">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5263539907513</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N6">
-        <v>45.5263539907513</v>
+        <v>2.030039</v>
       </c>
       <c r="O6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q6">
-        <v>547.0193252972838</v>
+        <v>8.225553594841001</v>
       </c>
       <c r="R6">
-        <v>547.0193252972838</v>
+        <v>74.02998235356901</v>
       </c>
       <c r="S6">
-        <v>0.01665996172183687</v>
+        <v>0.0002201651712327917</v>
       </c>
       <c r="T6">
-        <v>0.01665996172183687</v>
+        <v>0.0002201651712327917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H7">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I7">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J7">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0662428636297</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N7">
-        <v>22.0662428636297</v>
+        <v>137.100929</v>
       </c>
       <c r="O7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q7">
-        <v>265.1356901007465</v>
+        <v>555.521859132751</v>
       </c>
       <c r="R7">
-        <v>265.1356901007465</v>
+        <v>4999.69673219476</v>
       </c>
       <c r="S7">
-        <v>0.008074944053888207</v>
+        <v>0.01486909833232752</v>
       </c>
       <c r="T7">
-        <v>0.008074944053888207</v>
+        <v>0.01486909833232752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>135.384559057878</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>135.384559057878</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.543673551326876</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N8">
-        <v>0.543673551326876</v>
+        <v>0.439328</v>
       </c>
       <c r="O8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q8">
-        <v>73.60500401781971</v>
+        <v>1.780121470432</v>
       </c>
       <c r="R8">
-        <v>73.60500401781971</v>
+        <v>16.021093233888</v>
       </c>
       <c r="S8">
-        <v>0.002241706083795308</v>
+        <v>4.764673208118657E-05</v>
       </c>
       <c r="T8">
-        <v>0.002241706083795308</v>
+        <v>4.764673208118657E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>135.384559057878</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>135.384559057878</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.2809433924508936</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.5263539907513</v>
+        <v>26.65531</v>
       </c>
       <c r="N9">
-        <v>45.5263539907513</v>
+        <v>79.96593</v>
       </c>
       <c r="O9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q9">
-        <v>6163.56536055073</v>
+        <v>324.0154711196701</v>
       </c>
       <c r="R9">
-        <v>6163.56536055073</v>
+        <v>2916.13924007703</v>
       </c>
       <c r="S9">
-        <v>0.187716883532423</v>
+        <v>0.008672598246260014</v>
       </c>
       <c r="T9">
-        <v>0.187716883532423</v>
+        <v>0.008672598246260014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H10">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I10">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J10">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.0662428636297</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N10">
-        <v>22.0662428636297</v>
+        <v>2.030039</v>
       </c>
       <c r="O10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q10">
-        <v>2987.428560156554</v>
+        <v>102.2240750219602</v>
       </c>
       <c r="R10">
-        <v>2987.428560156554</v>
+        <v>920.016675197642</v>
       </c>
       <c r="S10">
-        <v>0.09098480283467524</v>
+        <v>0.002736129638184998</v>
       </c>
       <c r="T10">
-        <v>0.09098480283467524</v>
+        <v>0.002736129638184998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,122 +1092,122 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H11">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I11">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J11">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.543673551326876</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N11">
-        <v>0.543673551326876</v>
+        <v>137.100929</v>
       </c>
       <c r="O11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q11">
-        <v>87.04664626151903</v>
+        <v>6903.815961997007</v>
       </c>
       <c r="R11">
-        <v>87.04664626151903</v>
+        <v>62134.34365797307</v>
       </c>
       <c r="S11">
-        <v>0.002651083293891048</v>
+        <v>0.1847875411554148</v>
       </c>
       <c r="T11">
-        <v>0.002651083293891048</v>
+        <v>0.1847875411554148</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H12">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I12">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J12">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>45.5263539907513</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N12">
-        <v>45.5263539907513</v>
+        <v>0.439328</v>
       </c>
       <c r="O12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q12">
-        <v>7289.146992230594</v>
+        <v>22.12267765853155</v>
       </c>
       <c r="R12">
-        <v>7289.146992230594</v>
+        <v>199.104098926784</v>
       </c>
       <c r="S12">
-        <v>0.2219974766145745</v>
+        <v>0.0005921356001951384</v>
       </c>
       <c r="T12">
-        <v>0.2219974766145745</v>
+        <v>0.0005921356001951384</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>160.10829669583</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H13">
-        <v>160.10829669583</v>
+        <v>453.201478</v>
       </c>
       <c r="I13">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J13">
-        <v>0.3322488793868345</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.0662428636297</v>
+        <v>26.65531</v>
       </c>
       <c r="N13">
-        <v>22.0662428636297</v>
+        <v>79.96593</v>
       </c>
       <c r="O13">
-        <v>0.3238545745494925</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P13">
-        <v>0.3238545745494925</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q13">
-        <v>3532.988559372266</v>
+        <v>4026.741962849394</v>
       </c>
       <c r="R13">
-        <v>3532.988559372266</v>
+        <v>36240.67766564454</v>
       </c>
       <c r="S13">
-        <v>0.1076003194783689</v>
+        <v>0.1077797771954267</v>
       </c>
       <c r="T13">
-        <v>0.1076003194783689</v>
+        <v>0.1077797771954267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H14">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I14">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J14">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N14">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="O14">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P14">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q14">
-        <v>75.07122464442654</v>
+        <v>109.932632945674</v>
       </c>
       <c r="R14">
-        <v>75.07122464442654</v>
+        <v>989.3936965110661</v>
       </c>
       <c r="S14">
-        <v>0.002286361141460341</v>
+        <v>0.00294245690305101</v>
       </c>
       <c r="T14">
-        <v>0.002286361141460341</v>
+        <v>0.00294245690305101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H15">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I15">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J15">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N15">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="O15">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P15">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q15">
-        <v>6286.344331704524</v>
+        <v>7424.421946705414</v>
       </c>
       <c r="R15">
-        <v>6286.344331704524</v>
+        <v>66819.79752034873</v>
       </c>
       <c r="S15">
-        <v>0.1914562266690793</v>
+        <v>0.1987220811771382</v>
       </c>
       <c r="T15">
-        <v>0.1914562266690793</v>
+        <v>0.1987220811771382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>138.08143593009</v>
+        <v>162.458898</v>
       </c>
       <c r="H16">
-        <v>138.08143593009</v>
+        <v>487.376694</v>
       </c>
       <c r="I16">
-        <v>0.2865398189767405</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J16">
-        <v>0.2865398189767405</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N16">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="O16">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P16">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q16">
-        <v>3046.93850019209</v>
+        <v>23.790914246848</v>
       </c>
       <c r="R16">
-        <v>3046.93850019209</v>
+        <v>214.118228221632</v>
       </c>
       <c r="S16">
-        <v>0.09279723116620088</v>
+        <v>0.0006367876214711116</v>
       </c>
       <c r="T16">
-        <v>0.09279723116620088</v>
+        <v>0.0006367876214711118</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.30358382520104</v>
+        <v>162.458898</v>
       </c>
       <c r="H17">
-        <v>9.30358382520104</v>
+        <v>487.376694</v>
       </c>
       <c r="I17">
-        <v>0.01930634054571784</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J17">
-        <v>0.01930634054571784</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.543673551326876</v>
+        <v>26.65531</v>
       </c>
       <c r="N17">
-        <v>0.543673551326876</v>
+        <v>79.96593</v>
       </c>
       <c r="O17">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P17">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q17">
-        <v>5.058112458314331</v>
+        <v>4330.39228844838</v>
       </c>
       <c r="R17">
-        <v>5.058112458314331</v>
+        <v>38973.53059603542</v>
       </c>
       <c r="S17">
-        <v>0.0001540493288687134</v>
+        <v>0.1159072819474866</v>
       </c>
       <c r="T17">
-        <v>0.0001540493288687134</v>
+        <v>0.1159072819474867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.30358382520104</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H18">
-        <v>9.30358382520104</v>
+        <v>427.775368</v>
       </c>
       <c r="I18">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J18">
-        <v>0.01930634054571784</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.5263539907513</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N18">
-        <v>45.5263539907513</v>
+        <v>2.030039</v>
       </c>
       <c r="O18">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P18">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q18">
-        <v>423.5582506087306</v>
+        <v>96.48896447548356</v>
       </c>
       <c r="R18">
-        <v>423.5582506087306</v>
+        <v>868.4006802793519</v>
       </c>
       <c r="S18">
-        <v>0.01289984451330806</v>
+        <v>0.002582623666708991</v>
       </c>
       <c r="T18">
-        <v>0.01289984451330806</v>
+        <v>0.002582623666708991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H19">
+        <v>427.775368</v>
+      </c>
+      <c r="I19">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J19">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N19">
+        <v>137.100929</v>
+      </c>
+      <c r="O19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q19">
+        <v>6516.488928457431</v>
+      </c>
+      <c r="R19">
+        <v>58648.40035611688</v>
+      </c>
+      <c r="S19">
+        <v>0.1744203456008427</v>
+      </c>
+      <c r="T19">
+        <v>0.1744203456008427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H20">
+        <v>427.775368</v>
+      </c>
+      <c r="I20">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J20">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.439328</v>
+      </c>
+      <c r="O20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q20">
+        <v>20.88152187474489</v>
+      </c>
+      <c r="R20">
+        <v>187.933696872704</v>
+      </c>
+      <c r="S20">
+        <v>0.0005589148239260073</v>
+      </c>
+      <c r="T20">
+        <v>0.0005589148239260073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>142.5917893333333</v>
+      </c>
+      <c r="H21">
+        <v>427.775368</v>
+      </c>
+      <c r="I21">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="J21">
+        <v>0.2792948573734662</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.65531</v>
+      </c>
+      <c r="N21">
+        <v>79.96593</v>
+      </c>
+      <c r="O21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q21">
+        <v>3800.828348134693</v>
+      </c>
+      <c r="R21">
+        <v>34207.45513321224</v>
+      </c>
+      <c r="S21">
+        <v>0.1017329732819885</v>
+      </c>
+      <c r="T21">
+        <v>0.1017329732819885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>9.30358382520104</v>
-      </c>
-      <c r="H19">
-        <v>9.30358382520104</v>
-      </c>
-      <c r="I19">
-        <v>0.01930634054571784</v>
-      </c>
-      <c r="J19">
-        <v>0.01930634054571784</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="N19">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="O19">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="P19">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="Q19">
-        <v>205.2951401890232</v>
-      </c>
-      <c r="R19">
-        <v>205.2951401890232</v>
-      </c>
-      <c r="S19">
-        <v>0.006252446703541067</v>
-      </c>
-      <c r="T19">
-        <v>0.006252446703541067</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H22">
+        <v>29.23006</v>
+      </c>
+      <c r="I22">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J22">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6766796666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.030039</v>
+      </c>
+      <c r="O22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="P22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="Q22">
+        <v>6.593129085815556</v>
+      </c>
+      <c r="R22">
+        <v>59.33816177234</v>
+      </c>
+      <c r="S22">
+        <v>0.0001764716960872881</v>
+      </c>
+      <c r="T22">
+        <v>0.0001764716960872881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H23">
+        <v>29.23006</v>
+      </c>
+      <c r="I23">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J23">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N23">
+        <v>137.100929</v>
+      </c>
+      <c r="O23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q23">
+        <v>445.2742645250822</v>
+      </c>
+      <c r="R23">
+        <v>4007.468380725741</v>
+      </c>
+      <c r="S23">
+        <v>0.01191821116528937</v>
+      </c>
+      <c r="T23">
+        <v>0.01191821116528937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H24">
+        <v>29.23006</v>
+      </c>
+      <c r="I24">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J24">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.439328</v>
+      </c>
+      <c r="O24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q24">
+        <v>1.426842644408889</v>
+      </c>
+      <c r="R24">
+        <v>12.84158379968</v>
+      </c>
+      <c r="S24">
+        <v>3.819087086437063E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.819087086437064E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.743353333333333</v>
+      </c>
+      <c r="H25">
+        <v>29.23006</v>
+      </c>
+      <c r="I25">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="J25">
+        <v>0.01908432801282251</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.65531</v>
+      </c>
+      <c r="N25">
+        <v>79.96593</v>
+      </c>
+      <c r="O25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q25">
+        <v>259.7121035395334</v>
+      </c>
+      <c r="R25">
+        <v>2337.4089318558</v>
+      </c>
+      <c r="S25">
+        <v>0.006951454280581483</v>
+      </c>
+      <c r="T25">
+        <v>0.006951454280581484</v>
       </c>
     </row>
   </sheetData>
